--- a/Phase3_Hospitals_Hip_Knee_Reports/Worse_Report_COMP_HIP_KNEE_04_1_2013 _to_ 3_31_2016.xlsx
+++ b/Phase3_Hospitals_Hip_Knee_Reports/Worse_Report_COMP_HIP_KNEE_04_1_2013 _to_ 3_31_2016.xlsx
@@ -1709,6 +1709,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
